--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1993.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1993.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.023*"foreign" + 0.020*"exchange" + 0.019*"bank" + 0.016*"import" + 0.014*"may" + 0.012*"export" + 0.012*"currency" + 0.011*"account" + 0.010*"rate" + 0.009*"percent"</t>
-  </si>
-  <si>
-    <t>0.013*"foreign" + 0.012*"bank" + 0.012*"import" + 0.011*"exchange" + 0.008*"may" + 0.007*"currency" + 0.007*"rate" + 0.006*"export" + 0.005*"account" + 0.005*"country"</t>
-  </si>
-  <si>
-    <t>0.001*"foreign" + 0.001*"bank" + 0.001*"exchange" + 0.001*"import" + 0.001*"currency" + 0.001*"account" + 0.001*"may" + 0.001*"percent" + 0.001*"export" + 0.000*"rate"</t>
-  </si>
-  <si>
-    <t>0.001*"foreign" + 0.001*"exchange" + 0.001*"bank" + 0.001*"may" + 0.001*"account" + 0.001*"currency" + 0.001*"import" + 0.001*"rate" + 0.001*"country" + 0.001*"percent"</t>
-  </si>
-  <si>
-    <t>0.001*"foreign" + 0.001*"import" + 0.001*"bank" + 0.001*"exchange" + 0.001*"currency" + 0.001*"may" + 0.001*"export" + 0.001*"rate" + 0.001*"account" + 0.001*"payment"</t>
+    <t>0.036*"fund" + 0.033*"investment" + 0.028*"gold" + 0.026*"international" + 0.023*"monetary" + 0.017*"dollar" + 0.016*"foreign" + 0.013*"tax" + 0.013*"capital" + 0.009*"however"</t>
+  </si>
+  <si>
+    <t>0.030*"require" + 0.027*"bank" + 0.027*"percent" + 0.018*"approval" + 0.017*"license" + 0.016*"import" + 0.016*"year" + 0.014*"central" + 0.014*"finance" + 0.013*"ministry"</t>
+  </si>
+  <si>
+    <t>0.061*"import" + 0.051*"export" + 0.024*"payment" + 0.019*"product" + 0.017*"certain" + 0.016*"good" + 0.016*"subject" + 0.014*"proceeds" + 0.014*"regulation" + 0.013*"duty"</t>
+  </si>
+  <si>
+    <t>0.076*"exchange" + 0.051*"rate" + 0.031*"bank" + 0.027*"foreign" + 0.018*"currency" + 0.016*"control" + 0.015*"market" + 0.011*"transaction" + 0.011*"commercial" + 0.010*"sell"</t>
+  </si>
+  <si>
+    <t>0.051*"foreign" + 0.046*"may" + 0.039*"account" + 0.030*"currency" + 0.027*"bank" + 0.020*"resident" + 0.019*"nonresident" + 0.017*"exchange" + 0.016*"abroad" + 0.015*"transfer"</t>
   </si>
 </sst>
 </file>
